--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>表头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +488,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -586,26 +598,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>32</v>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
